--- a/biology/Médecine/1869_en_santé_et_médecine/1869_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1869_en_santé_et_médecine/1869_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1869_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1869_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1869 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1869_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1869_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>18 février : lors de sa soutenance de thèse à la faculté de médecine  de l'Université de Berlin, Paul Langerhans décrit pour la première fois les îlots pancréatiques éponymes[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>18 février : lors de sa soutenance de thèse à la faculté de médecine  de l'Université de Berlin, Paul Langerhans décrit pour la première fois les îlots pancréatiques éponymes.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1869_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1869_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,19 +555,21 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>17 janvier :
-Georg Perthes (en) (mort en 1927)[2], médecin anglais, pionnier du diagnostic radiologique.
-Osvaldo Polimanti (it) (mort en 1947)[3], médecin et physiologiste italien.
-31 janvier : Johannes Sobotta (mort en 1945)[4], médecin anatomiste allemand.
-8 avril : Harvey Cushing (mort en 1939)[5], neurochirurgien américain, pionnier de la chirurgie du cerveau.
-22 octobre : Victor Pauchet (mort en 1936)[6], chirurgien français.
+Georg Perthes (en) (mort en 1927), médecin anglais, pionnier du diagnostic radiologique.
+Osvaldo Polimanti (it) (mort en 1947), médecin et physiologiste italien.
+31 janvier : Johannes Sobotta (mort en 1945), médecin anatomiste allemand.
+8 avril : Harvey Cushing (mort en 1939), neurochirurgien américain, pionnier de la chirurgie du cerveau.
+22 octobre : Victor Pauchet (mort en 1936), chirurgien français.
 Date à préciser
 Joachim Carvallo (mort en 1936), médecin et mécène d'origine espagnole, connu pour sa restauration des jardins et du château de Villandry.
 Helen Boyle (en) (morte en 1957), médecin et psychologue irlandaise.
 Wilfred Harris (it) (mort en 1960), médecin anglais qui a décrit les algies vasculaires de la face.
-Étienne Lombard (mort en 1920), médecin ORL et chirurgien français qui a décrit le phénomène éponyme de modification de la prononciation humaine pour compenser la présence de bruits environnants[7].</t>
+Étienne Lombard (mort en 1920), médecin ORL et chirurgien français qui a décrit le phénomène éponyme de modification de la prononciation humaine pour compenser la présence de bruits environnants.</t>
         </is>
       </c>
     </row>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1869_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1869_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,10 +597,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>28 juillet :
-Jan Evangelista Purkinje (né en 1787)[8], anatomiste et neurophysiologiste tchèque.
+Jan Evangelista Purkinje (né en 1787), anatomiste et neurophysiologiste tchèque.
 Carl Gustav Carus (né en 1789), médecin et peintre saxon.</t>
         </is>
       </c>
